--- a/storage/hello world.xlsx
+++ b/storage/hello world.xlsx
@@ -15,147 +15,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
-  <si>
-    <t>Account Number</t>
-  </si>
-  <si>
-    <t>Job Number</t>
-  </si>
-  <si>
-    <t>Date Finished</t>
-  </si>
-  <si>
-    <t>Engineer</t>
-  </si>
-  <si>
-    <t>SWF670739</t>
-  </si>
-  <si>
-    <t>2021-04-02 15:40:00</t>
-  </si>
-  <si>
-    <t>Kemar Purcell</t>
-  </si>
-  <si>
-    <t>SWF701947</t>
-  </si>
-  <si>
-    <t>2021-04-20 09:33:02</t>
-  </si>
-  <si>
-    <t>Davian  Watson</t>
-  </si>
-  <si>
-    <t>SWF721136</t>
-  </si>
-  <si>
-    <t>2021-04-12 08:59:00</t>
-  </si>
-  <si>
-    <t>Ricardo Williams</t>
-  </si>
-  <si>
-    <t>SWF726053</t>
-  </si>
-  <si>
-    <t>2021-04-22 14:25:45</t>
-  </si>
-  <si>
-    <t>Howard Green</t>
-  </si>
-  <si>
-    <t>SWF745037</t>
-  </si>
-  <si>
-    <t>2021-04-14 21:59:54</t>
-  </si>
-  <si>
-    <t>Dwight Miller</t>
-  </si>
-  <si>
-    <t>SWF769773</t>
-  </si>
-  <si>
-    <t>2021-04-15 17:29:51</t>
-  </si>
-  <si>
-    <t>Theo  Hamilton</t>
-  </si>
-  <si>
-    <t>SWF772200</t>
-  </si>
-  <si>
-    <t>2021-04-16 11:16:09</t>
-  </si>
-  <si>
-    <t>Conroy  Wilson</t>
-  </si>
-  <si>
-    <t>SWF772995</t>
-  </si>
-  <si>
-    <t>2021-04-21 16:58:37</t>
-  </si>
-  <si>
-    <t>Charles  Newman</t>
-  </si>
-  <si>
-    <t>SWF780454</t>
-  </si>
-  <si>
-    <t>2021-04-14 10:42:47</t>
-  </si>
-  <si>
-    <t>SWF787253</t>
-  </si>
-  <si>
-    <t>2021-04-03 14:19:00</t>
-  </si>
-  <si>
-    <t>Jason Prendergast</t>
-  </si>
-  <si>
-    <t>SWF790786</t>
-  </si>
-  <si>
-    <t>2021-04-07 16:10:00</t>
-  </si>
-  <si>
-    <t>SWF791370</t>
-  </si>
-  <si>
-    <t>2021-04-09 08:45:00</t>
-  </si>
-  <si>
-    <t>Delroy Reid</t>
-  </si>
-  <si>
-    <t>SWF792718</t>
-  </si>
-  <si>
-    <t>2021-04-06 10:28:00</t>
-  </si>
-  <si>
-    <t>Ricardo Gibbs</t>
-  </si>
-  <si>
-    <t>SWF793098</t>
-  </si>
-  <si>
-    <t>2021-04-03 12:08:00</t>
-  </si>
-  <si>
-    <t>Greg Allen</t>
-  </si>
-  <si>
-    <t>SWF793301</t>
-  </si>
-  <si>
-    <t>2021-04-01 08:36:00</t>
-  </si>
-  <si>
-    <t>Derrick Clarke</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+  <si>
+    <t>SLA</t>
+  </si>
+  <si>
+    <t>2021-05-01</t>
+  </si>
+  <si>
+    <t>2021-05-02</t>
+  </si>
+  <si>
+    <t>2021-05-03</t>
+  </si>
+  <si>
+    <t>2021-05-04</t>
+  </si>
+  <si>
+    <t>2021-05-05</t>
+  </si>
+  <si>
+    <t>2021-05-06</t>
+  </si>
+  <si>
+    <t>2021-05-07</t>
+  </si>
+  <si>
+    <t>2021-05-08</t>
+  </si>
+  <si>
+    <t>2021-05-09</t>
+  </si>
+  <si>
+    <t>2021-05-10</t>
+  </si>
+  <si>
+    <t>2021-05-11</t>
+  </si>
+  <si>
+    <t>2021-05-12</t>
+  </si>
+  <si>
+    <t>2021-05-13</t>
+  </si>
+  <si>
+    <t>2021-05-14</t>
+  </si>
+  <si>
+    <t>2021-05-15</t>
+  </si>
+  <si>
+    <t>2021-05-16</t>
+  </si>
+  <si>
+    <t>2021-05-17</t>
+  </si>
+  <si>
+    <t>2021-05-18</t>
+  </si>
+  <si>
+    <t>2021-05-19</t>
+  </si>
+  <si>
+    <t>2021-05-20</t>
+  </si>
+  <si>
+    <t>2021-05-21</t>
+  </si>
+  <si>
+    <t>2021-05-22</t>
+  </si>
+  <si>
+    <t>2021-05-23</t>
+  </si>
+  <si>
+    <t>2021-05-24</t>
+  </si>
+  <si>
+    <t>2021-05-25</t>
+  </si>
+  <si>
+    <t>2021-05-26</t>
+  </si>
+  <si>
+    <t>2021-05-27</t>
+  </si>
+  <si>
+    <t>2021-05-28</t>
+  </si>
+  <si>
+    <t>2021-05-29</t>
+  </si>
+  <si>
+    <t>2021-05-30</t>
+  </si>
+  <si>
+    <t>2021-05-31</t>
+  </si>
+  <si>
+    <t>+72 hours</t>
+  </si>
+  <si>
+    <t>24 hours</t>
+  </si>
+  <si>
+    <t>24 to 48 hours</t>
   </si>
 </sst>
 </file>
@@ -494,7 +458,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:AF4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,7 +466,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -515,215 +479,377 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>102000157695</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:32">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <v>11</v>
+      </c>
+      <c r="J2">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>9</v>
+      </c>
+      <c r="T2">
+        <v>14</v>
+      </c>
+      <c r="U2">
+        <v>4</v>
+      </c>
+      <c r="V2">
+        <v>2</v>
+      </c>
+      <c r="W2">
+        <v>2</v>
+      </c>
+      <c r="X2">
+        <v>3</v>
+      </c>
+      <c r="Y2">
         <v>6</v>
       </c>
+      <c r="Z2">
+        <v>3</v>
+      </c>
+      <c r="AA2">
+        <v>9</v>
+      </c>
+      <c r="AB2">
+        <v>8</v>
+      </c>
+      <c r="AC2">
+        <v>11</v>
+      </c>
+      <c r="AD2">
+        <v>8</v>
+      </c>
+      <c r="AE2">
+        <v>3</v>
+      </c>
+      <c r="AF2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>102000049410</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
+    <row r="3" spans="1:32">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>142</v>
+      </c>
+      <c r="C3">
+        <v>95</v>
+      </c>
+      <c r="D3">
+        <v>176</v>
+      </c>
+      <c r="E3">
+        <v>161</v>
+      </c>
+      <c r="F3">
+        <v>179</v>
+      </c>
+      <c r="G3">
+        <v>195</v>
+      </c>
+      <c r="H3">
+        <v>152</v>
+      </c>
+      <c r="I3">
+        <v>128</v>
+      </c>
+      <c r="J3">
+        <v>84</v>
+      </c>
+      <c r="K3">
+        <v>183</v>
+      </c>
+      <c r="L3">
+        <v>161</v>
+      </c>
+      <c r="M3">
+        <v>209</v>
+      </c>
+      <c r="N3">
+        <v>171</v>
+      </c>
+      <c r="O3">
+        <v>149</v>
+      </c>
+      <c r="P3">
+        <v>110</v>
+      </c>
+      <c r="Q3">
+        <v>105</v>
+      </c>
+      <c r="R3">
+        <v>208</v>
+      </c>
+      <c r="S3">
+        <v>152</v>
+      </c>
+      <c r="T3">
+        <v>186</v>
+      </c>
+      <c r="U3">
+        <v>158</v>
+      </c>
+      <c r="V3">
+        <v>198</v>
+      </c>
+      <c r="W3">
+        <v>87</v>
+      </c>
+      <c r="X3">
+        <v>86</v>
+      </c>
+      <c r="Y3">
+        <v>114</v>
+      </c>
+      <c r="Z3">
+        <v>201</v>
+      </c>
+      <c r="AA3">
+        <v>224</v>
+      </c>
+      <c r="AB3">
+        <v>208</v>
+      </c>
+      <c r="AC3">
+        <v>164</v>
+      </c>
+      <c r="AD3">
+        <v>105</v>
+      </c>
+      <c r="AE3">
+        <v>101</v>
+      </c>
+      <c r="AF3">
+        <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>102000060577</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="4" spans="1:32">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>45</v>
+      </c>
+      <c r="F4">
+        <v>34</v>
+      </c>
+      <c r="G4">
+        <v>33</v>
+      </c>
+      <c r="H4">
+        <v>36</v>
+      </c>
+      <c r="I4">
+        <v>32</v>
+      </c>
+      <c r="J4">
+        <v>27</v>
+      </c>
+      <c r="K4">
+        <v>46</v>
+      </c>
+      <c r="L4">
+        <v>46</v>
+      </c>
+      <c r="M4">
+        <v>36</v>
+      </c>
+      <c r="N4">
+        <v>38</v>
+      </c>
+      <c r="O4">
+        <v>41</v>
+      </c>
+      <c r="P4">
+        <v>29</v>
+      </c>
+      <c r="Q4">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>102000118730</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="R4">
+        <v>24</v>
+      </c>
+      <c r="S4">
+        <v>39</v>
+      </c>
+      <c r="T4">
+        <v>38</v>
+      </c>
+      <c r="U4">
+        <v>77</v>
+      </c>
+      <c r="V4">
+        <v>95</v>
+      </c>
+      <c r="W4">
+        <v>52</v>
+      </c>
+      <c r="X4">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>102000138042</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="Y4">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>102000110959</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>102000085836</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>102000034287</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="Z4">
+        <v>31</v>
+      </c>
+      <c r="AA4">
+        <v>67</v>
+      </c>
+      <c r="AB4">
+        <v>29</v>
+      </c>
+      <c r="AC4">
+        <v>38</v>
+      </c>
+      <c r="AD4">
+        <v>47</v>
+      </c>
+      <c r="AE4">
+        <v>18</v>
+      </c>
+      <c r="AF4">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>102000023471</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>102000077337</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>102000028586</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>102000166887</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>102000050089</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>102000154423</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>102000159985</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
